--- a/biology/Botanique/Bull/Bull..xlsx
+++ b/biology/Botanique/Bull/Bull..xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean-Baptiste François Bulliard, dit Pierre Bulliard est un naturaliste français, né le 24 novembre 1752 à Aubepierre-sur-Aube (dans la Haute-Marne)[1] et mort le 29 septembre 1793 à Paris[2], à l'âge de 41 ans, dans des circonstances restées mystérieuses[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Baptiste François Bulliard, dit Pierre Bulliard est un naturaliste français, né le 24 novembre 1752 à Aubepierre-sur-Aube (dans la Haute-Marne) et mort le 29 septembre 1793 à Paris, à l'âge de 41 ans, dans des circonstances restées mystérieuses.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cadet d'une famille nombreuse, il devient orphelin très tôt. Après des études au collège de Langres, il entre au service de l'abbé de Clairvaux. Après son séjour à Clairvaux, il part étudier la médecine et la botanique à Paris, vers 1775[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cadet d'une famille nombreuse, il devient orphelin très tôt. Après des études au collège de Langres, il entre au service de l'abbé de Clairvaux. Après son séjour à Clairvaux, il part étudier la médecine et la botanique à Paris, vers 1775.
 Il publie de très nombreux ouvrages de botanique :
 De 1776 à 1780, Flora Parisiensis, ou Descriptions et figures des plantes qui croissent aux environs de Paris (en six volumes), qui est la refonte du Botanicon parisiense Sébastien Vaillant (1669-1722) suivant le système de Carl von Linné (1707-1778) mais en commentant des erreurs.
 De 1780 à 1793, Herbier de la France, ou Collection complète des plantes indigènes de ce royaume (en neuf volumes et comprenant plus de six cents planches colorées).
@@ -550,7 +564,9 @@
           <t>Ouvrages en ligne</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Flora Parisiensis ou descriptions et figures des plantes qui croissent aux environs de Paris, Vol. 4, 1779
 Flora Parisiensis ou descriptions et figures des plantes qui croissent aux environs de Paris, Vol. 6, 1783
